--- a/G.A.M.M.A/modpack_addons/toolkits_chance.xlsx
+++ b/G.A.M.M.A/modpack_addons/toolkits_chance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t>+local tools_map_tiers = {</t>
   </si>
@@ -47,33 +47,15 @@
     <t xml:space="preserve">    ["l07_military"] = {3, 3, 3, 4, 4},</t>
   </si>
   <si>
-    <t xml:space="preserve">    ["jupiter"] = {3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 5},</t>
-  </si>
-  <si>
     <t xml:space="preserve">    ["l03u_agr_underground"] = {3, 4, 5},</t>
   </si>
   <si>
-    <t xml:space="preserve">    ["l10_limansk"] = {3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 5},</t>
-  </si>
-  <si>
     <t xml:space="preserve">    ["l08u_brainlab"] = {3, 4, 5},</t>
   </si>
   <si>
-    <t xml:space="preserve">    ["l10_red_forest"] = {3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5},</t>
-  </si>
-  <si>
     <t xml:space="preserve">    ["labx8"] = {3, 4, 5},</t>
   </si>
   <si>
-    <t xml:space="preserve">    ["l12_stancia"] = {3, 4, 4, 4, 4, 5, 5, 5, 5},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ["zaton"] = {3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 5},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ["l12_stancia_2"] = {3, 4, 4, 4, 5, 5, 5, 5},</t>
-  </si>
-  <si>
     <t xml:space="preserve">    ["l11_hospital"] = {4, 5},</t>
   </si>
   <si>
@@ -83,24 +65,15 @@
     <t xml:space="preserve">    ["l10u_bunker"] = {4, 5},</t>
   </si>
   <si>
-    <t xml:space="preserve">    ["l10_radar"] = {3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5},</t>
-  </si>
-  <si>
     <t xml:space="preserve">    ["l04u_labx18"] = {4, 5},</t>
   </si>
   <si>
-    <t xml:space="preserve">    ["l11_pripyat"] = {3, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5},</t>
-  </si>
-  <si>
     <t xml:space="preserve">    ["l12u_sarcofag"] = {4, 5, 5, 5, 5},</t>
   </si>
   <si>
     <t xml:space="preserve">    ["l12u_control_monolith"] = {4, 5, 5, 5, 5},</t>
   </si>
   <si>
-    <t xml:space="preserve">    ["l13_generators"] = {4, 4, 5, 5, 5, 5, 5},</t>
-  </si>
-  <si>
     <t xml:space="preserve">    ["l13u_warlab"] = {4, 5, 5, 5, 5},</t>
   </si>
   <si>
@@ -144,14 +117,55 @@
   </si>
   <si>
     <t>Tool chance</t>
+  </si>
+  <si>
+    <t>Chances to get tools in RARE STASHES (white ones have 0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ["zaton"] = {3, 3, 4, 4, 5},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ["l10_limansk"] = {3, 3, 3, 4, 4, 4, 4, 5},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ["jupiter"] = {3, 3, 4, 4, 5},</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ["l10_radar"] = {3, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ["l13_generators"] = {4, 4, 4, 5, 5, 5, 5, 5, 5, 5},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ["l12_stancia"] = {4, 4, 4, 5, 5, 5, 5, 5},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ["l10_red_forest"] = {4, 4, 4, 4, 4, 4, 4, 5},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ["l12_stancia_2"] = { 4, 4, 4, 5, 5, 5, 5},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ["l11_pripyat"] = {4, 5},</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -179,9 +193,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,187 +489,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
+      <c r="A1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <f>(1/2*1/2)*100</f>
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>((1/2*1/2)+(1/2*1/4))*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="F3">
+        <f>((1/2*1/2)+(1/2*1/4))*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="G3">
+        <f>SUM(B3:F3)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
         <f>4/5*1/2*100</f>
         <v>40</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <f>((1/5*1/2)+(4/5*1/4))*100</f>
         <v>30.000000000000004</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F4" s="1">
         <f>((1/5*1/2)+(4/5*1/4))*100</f>
         <v>30.000000000000004</v>
       </c>
-      <c r="G2">
-        <f>SUM(B2:F2)</f>
+      <c r="G4">
+        <f>SUM(B4:F4)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
         <f>4/5*1/2*100</f>
         <v>40</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <f>((1/5*1/2)+(4/5*1/4))*100</f>
         <v>30.000000000000004</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F5" s="1">
         <f>((1/5*1/2)+(4/5*1/4))*100</f>
         <v>30.000000000000004</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G13" si="0">SUM(B3:F3)</f>
+      <c r="G5">
+        <f t="shared" ref="G5:G15" si="0">SUM(B5:F5)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1">
         <f>5/6*1/2*100</f>
         <v>41.666666666666671</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <f>((1/6*1/2)+(5/6*1/4))*100</f>
         <v>29.166666666666668</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F6" s="1">
         <f>((1/6*1/2)+(5/6*1/4))*100</f>
         <v>29.166666666666668</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B7" s="1">
         <f>(5/8*1/2+2/8*5/11)*100</f>
         <v>42.613636363636367</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C7" s="1">
         <f>2/8*2/11*100</f>
         <v>4.5454545454545459</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <f>((1/8*1/2)+(5/8*1/4)+(2/8*2/11))*100</f>
         <v>26.420454545454547</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F7" s="1">
         <f>((1/8*1/2)+(5/8*1/4)+(2/8*2/11))*100</f>
         <v>26.420454545454547</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>100.00000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <f>((2/3*1/2)+(1/3*5/11))*100</f>
-        <v>48.484848484848477</v>
-      </c>
-      <c r="C6" s="1">
-        <f>1/3*2/11*100</f>
-        <v>6.0606060606060597</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <f>((2/3*1/4)+(1/3*2/11))*100</f>
-        <v>22.727272727272727</v>
-      </c>
-      <c r="F6" s="1">
-        <f>((2/3*1/4)+(1/3*2/11))*100</f>
-        <v>22.727272727272727</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <f>((3/4*1/2)+(1/4*5/11))*100</f>
-        <v>48.863636363636367</v>
-      </c>
-      <c r="C7" s="1">
-        <f>1/4*2/11*100</f>
-        <v>4.5454545454545459</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <f>((3/4*1/4)+(1/4*2/11))*100</f>
-        <v>23.295454545454547</v>
-      </c>
-      <c r="F7" s="1">
-        <f>((3/4*1/4)+(1/4*2/11))*100</f>
-        <v>23.295454545454547</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -663,110 +654,110 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
+        <f>((2/3*1/2)+(1/3*5/11))*100</f>
+        <v>48.484848484848477</v>
+      </c>
+      <c r="C8" s="1">
+        <f>1/3*2/11*100</f>
+        <v>6.0606060606060597</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <f>((2/3*1/4)+(1/3*2/11))*100</f>
+        <v>22.727272727272727</v>
+      </c>
+      <c r="F8" s="1">
+        <f>((2/3*1/4)+(1/3*2/11))*100</f>
+        <v>22.727272727272727</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <f>((3/4*1/2)+(1/4*5/11))*100</f>
+        <v>48.863636363636367</v>
+      </c>
+      <c r="C9" s="1">
+        <f>1/4*2/11*100</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <f>((3/4*1/4)+(1/4*2/11))*100</f>
+        <v>23.295454545454547</v>
+      </c>
+      <c r="F9" s="1">
+        <f>((3/4*1/4)+(1/4*2/11))*100</f>
+        <v>23.295454545454547</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
         <f>((3/7*5/11)+(1/7*1/2))*100</f>
         <v>26.623376623376622</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C10" s="1">
         <f>((3/7*2/11)+(3/7*1))*100</f>
         <v>50.649350649350644</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <f>((3/7*2/11)+(1/7*1/4))*100</f>
         <v>11.363636363636363</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F10" s="1">
         <f>((3/7*2/11)+(1/7*1/4))*100</f>
         <v>11.363636363636363</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B11" s="1">
         <f>((1/2*1/2)+(1/2*5/11))*100</f>
         <v>47.727272727272727</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C11" s="1">
         <f>(1/2*2/11)*100</f>
         <v>9.0909090909090917</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <f>((1/2*1/4)+(1/2*2/11))*100</f>
         <v>21.59090909090909</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F11" s="1">
         <f>((1/2*1/4)+(1/2*2/11))*100</f>
         <v>21.59090909090909</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <f>((1/2*1/2)+(1/2*5/11))*100</f>
-        <v>47.727272727272727</v>
-      </c>
-      <c r="C10" s="1">
-        <f>(1/2*2/11)*100</f>
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <f>((1/2*1/4)+(1/2*2/11))*100</f>
-        <v>21.59090909090909</v>
-      </c>
-      <c r="F10" s="1">
-        <f>((1/2*1/4)+(1/2*2/11))*100</f>
-        <v>21.59090909090909</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1">
-        <f>((2/7*1/2)+(4/7*5/11))*100</f>
-        <v>40.259740259740255</v>
-      </c>
-      <c r="C11" s="1">
-        <f>((1/7*1)+(4/7*2/11))*100</f>
-        <v>24.675324675324674</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <f>((2/7*1/4)+(4/7*2/11))*100</f>
-        <v>17.532467532467532</v>
-      </c>
-      <c r="F11" s="1">
-        <f>((2/7*1/4)+(4/7*2/11))*100</f>
-        <v>17.532467532467532</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -775,26 +766,26 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
-        <f>((3/5*5/11))*100</f>
-        <v>27.27272727272727</v>
+        <f>((1/2*1/2)+(1/2*5/11))*100</f>
+        <v>47.727272727272727</v>
       </c>
       <c r="C12" s="1">
-        <f>((2/11*3/5)+(1*2/5))*100</f>
-        <v>50.909090909090914</v>
+        <f>(1/2*2/11)*100</f>
+        <v>9.0909090909090917</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f>((3/5*2/11))*100</f>
-        <v>10.909090909090908</v>
+        <f>((1/2*1/4)+(1/2*2/11))*100</f>
+        <v>21.59090909090909</v>
       </c>
       <c r="F12" s="1">
-        <f>((3/5*2/11))*100</f>
-        <v>10.909090909090908</v>
+        <f>((1/2*1/4)+(1/2*2/11))*100</f>
+        <v>21.59090909090909</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -803,26 +794,26 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
-        <f>((2/11*1/2)+(6/11*5/11))*100</f>
-        <v>33.884297520661157</v>
+        <f>((2/7*1/2)+(4/7*5/11))*100</f>
+        <v>40.259740259740255</v>
       </c>
       <c r="C13" s="1">
-        <f>((3/11*1)+(6/11*2/11))*100</f>
-        <v>37.190082644628099</v>
+        <f>((1/7*1)+(4/7*2/11))*100</f>
+        <v>24.675324675324674</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f>((2/11*1/4)+(6/11*2/11))*100</f>
-        <v>14.46280991735537</v>
+        <f>((2/7*1/4)+(4/7*2/11))*100</f>
+        <v>17.532467532467532</v>
       </c>
       <c r="F13" s="1">
-        <f>((2/11*1/4)+(6/11*2/11))*100</f>
-        <v>14.46280991735537</v>
+        <f>((2/7*1/4)+(4/7*2/11))*100</f>
+        <v>17.532467532467532</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -831,110 +822,595 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <f>((3/5*5/11))*100</f>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="C14" s="1">
+        <f>((2/11*3/5)+(1*2/5))*100</f>
+        <v>50.909090909090914</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <f>((3/5*2/11))*100</f>
+        <v>10.909090909090908</v>
+      </c>
+      <c r="F14" s="1">
+        <f>((3/5*2/11))*100</f>
+        <v>10.909090909090908</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B15" s="1">
+        <f>((2/11*1/2)+(6/11*5/11))*100</f>
+        <v>33.884297520661157</v>
+      </c>
+      <c r="C15" s="1">
+        <f>((3/11*1)+(6/11*2/11))*100</f>
+        <v>37.190082644628099</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f>((2/11*1/4)+(6/11*2/11))*100</f>
+        <v>14.46280991735537</v>
+      </c>
+      <c r="F15" s="1">
+        <f>((2/11*1/4)+(6/11*2/11))*100</f>
+        <v>14.46280991735537</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <f>((5/11*3/8))*100</f>
+        <v>17.045454545454543</v>
+      </c>
+      <c r="C16" s="1">
+        <f>((1*4/8)+(3/8*2/11))*100</f>
+        <v>56.818181818181813</v>
+      </c>
+      <c r="D16" s="1">
+        <f>1/8*100</f>
+        <v>12.5</v>
+      </c>
+      <c r="E16" s="1">
+        <f>(2/11*3/8)*100</f>
+        <v>6.8181818181818175</v>
+      </c>
+      <c r="F16" s="1">
+        <f>(2/11*3/8)*100</f>
+        <v>6.8181818181818175</v>
+      </c>
+      <c r="G16">
+        <f>SUM(B16:F16)</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f>(7/8)*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="D17" s="1">
+        <f>1/8*100</f>
+        <v>12.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>SUM(B17:F17)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1">
+        <f>(1/12*5/11)*100</f>
+        <v>3.7878787878787872</v>
+      </c>
+      <c r="C18" s="1">
+        <f>((8/12)+(1/12*2/11))*100</f>
+        <v>68.181818181818173</v>
+      </c>
+      <c r="D18" s="1">
+        <f>3/12*100</f>
+        <v>25</v>
+      </c>
+      <c r="E18" s="1">
+        <f>(1/12*2/11)*100</f>
+        <v>1.5151515151515149</v>
+      </c>
+      <c r="F18" s="1">
+        <f>(1/12*2/11)*100</f>
+        <v>1.5151515151515149</v>
+      </c>
+      <c r="G18">
+        <f>SUM(B18:F18)</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1">
+        <f>((2/5*5/11))*100</f>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="C19" s="1">
+        <f>((2/5*2/11)+(2/5))*100</f>
+        <v>47.27272727272728</v>
+      </c>
+      <c r="D19" s="1">
+        <f>1/5*100</f>
+        <v>20</v>
+      </c>
+      <c r="E19" s="1">
+        <f>((2/5*2/11))*100</f>
+        <v>7.2727272727272734</v>
+      </c>
+      <c r="F19" s="1">
+        <f>((2/5*2/11))*100</f>
+        <v>7.2727272727272734</v>
+      </c>
+      <c r="G19">
+        <f>SUM(B19:F19)</f>
+        <v>100.00000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1">
+        <f>((2/5*5/11))*100</f>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="C20" s="1">
+        <f>((2/11*2/5)+(1*2/5))*100</f>
+        <v>47.27272727272728</v>
+      </c>
+      <c r="D20" s="1">
+        <f>1/5*100</f>
+        <v>20</v>
+      </c>
+      <c r="E20" s="1">
+        <f>((2/5*2/11))*100</f>
+        <v>7.2727272727272734</v>
+      </c>
+      <c r="F20" s="1">
+        <f>((2/5*2/11))*100</f>
+        <v>7.2727272727272734</v>
+      </c>
+      <c r="G20">
+        <f>SUM(B20:F20)</f>
+        <v>100.00000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <f>((1/8*5/11))*100</f>
+        <v>5.6818181818181817</v>
+      </c>
+      <c r="C21" s="1">
+        <f>((3/8)+(1/8*2/11))*100</f>
+        <v>39.772727272727273</v>
+      </c>
+      <c r="D21" s="1">
+        <f>4/8*100</f>
+        <v>50</v>
+      </c>
+      <c r="E21" s="1">
+        <f>((1/8*2/11))*100</f>
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="F21" s="1">
+        <f>((1/8*2/11))*100</f>
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="G21">
+        <f>SUM(B21:F21)</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <f>4/8*100</f>
+        <v>50</v>
+      </c>
+      <c r="D22" s="1">
+        <f>4/8*100</f>
+        <v>50</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>SUM(B22:F22)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>SUM(B23:F23)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <f>(3/8)*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="D24" s="1">
+        <f>5/8*100</f>
+        <v>62.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>SUM(B24:F24)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <f>(3/8)*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="D25" s="1">
+        <f>5/8*100</f>
+        <v>62.5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>SUM(B25:F25)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1">
+        <f>7/10*100</f>
+        <v>70</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>SUM(B26:F26)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27">
+        <f>SUM(B27:F27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28">
+        <f>SUM(B28:F28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29">
+        <f>SUM(B29:F29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30">
+        <f>SUM(B30:F30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31">
+        <f>SUM(B31:F31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32">
+        <f>SUM(B32:F32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33">
+        <f>SUM(B33:F33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <f>SUM(B34:F34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>27</v>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35">
+        <f>SUM(B35:F35)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:F26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/G.A.M.M.A/modpack_addons/toolkits_chance.xlsx
+++ b/G.A.M.M.A/modpack_addons/toolkits_chance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\groki\Documents\GitHub\Stalker_GAMMA\G.A.M.M.A\modpack_addons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Stalker_GAMMA\G.A.M.M.A\modpack_addons\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +901,7 @@
         <v>6.8181818181818175</v>
       </c>
       <c r="G16">
-        <f>SUM(B16:F16)</f>
+        <f t="shared" ref="G16:G35" si="1">SUM(B16:F16)</f>
         <v>99.999999999999986</v>
       </c>
     </row>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f>SUM(B17:F17)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -956,7 +956,7 @@
         <v>1.5151515151515149</v>
       </c>
       <c r="G18">
-        <f>SUM(B18:F18)</f>
+        <f t="shared" si="1"/>
         <v>99.999999999999986</v>
       </c>
     </row>
@@ -985,7 +985,7 @@
         <v>7.2727272727272734</v>
       </c>
       <c r="G19">
-        <f>SUM(B19:F19)</f>
+        <f t="shared" si="1"/>
         <v>100.00000000000003</v>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>7.2727272727272734</v>
       </c>
       <c r="G20">
-        <f>SUM(B20:F20)</f>
+        <f t="shared" si="1"/>
         <v>100.00000000000003</v>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
         <v>2.2727272727272729</v>
       </c>
       <c r="G21">
-        <f>SUM(B21:F21)</f>
+        <f t="shared" si="1"/>
         <v>99.999999999999986</v>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <f>SUM(B22:F22)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f>SUM(B23:F23)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f>SUM(B24:F24)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f>SUM(B25:F25)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <f>SUM(B26:F26)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>35</v>
       </c>
       <c r="G27">
-        <f>SUM(B27:F27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
         <v>35</v>
       </c>
       <c r="G28">
-        <f>SUM(B28:F28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v>35</v>
       </c>
       <c r="G29">
-        <f>SUM(B29:F29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <v>35</v>
       </c>
       <c r="G30">
-        <f>SUM(B30:F30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
         <v>35</v>
       </c>
       <c r="G31">
-        <f>SUM(B31:F31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
         <v>35</v>
       </c>
       <c r="G32">
-        <f>SUM(B32:F32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>35</v>
       </c>
       <c r="G33">
-        <f>SUM(B33:F33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
         <v>35</v>
       </c>
       <c r="G34">
-        <f>SUM(B34:F34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
         <v>35</v>
       </c>
       <c r="G35">
-        <f>SUM(B35:F35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
